--- a/debug_transformacao.xlsx
+++ b/debug_transformacao.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,2369 +484,2113 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11218377844</v>
+        <v>11218383859</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>00001047011689</t>
+          <t>02718772400014</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADAO DE LIMA</t>
+          <t>ALINE FERNANDA RIBEIRO PESSOA</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E2" t="n">
-        <v>1297.18</v>
+        <v>2364.92</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>121 / 01121837784-4</t>
+          <t>121 / 01121838385-9</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11218375483</v>
+        <v>11218365682</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00003173238184</t>
+          <t>00000207582947</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADRIANO APARECIDO DE MELO</t>
+          <t>AMARO GOMES DA SILVA</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E3" t="n">
-        <v>1591.87</v>
+        <v>569.26</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>121 / 01121837548-3</t>
+          <t>121 / 01121836568-2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11218376952</v>
+        <v>11218381721</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00001650577680</t>
+          <t>00002284272088</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ALEX SANDRO MARINHO DE BARROS</t>
+          <t>ANDRE ALVES DA SILVA</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E4" t="n">
-        <v>1703.71</v>
+        <v>3357.52</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>121 / 01121837695-2</t>
+          <t>121 / 01121838172-1</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11218377604</v>
+        <v>11218363307</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00002204657689</t>
+          <t>00004220202480</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ALEXANDRE MOTTA DE ARRUDA CAMARA</t>
+          <t>ANDRE LUIS MOLINA DE SOUZA</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="E5" t="n">
-        <v>1584.25</v>
+        <v>1369.42</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>121 / 01121837760-4</t>
+          <t>121 / 01121836330-7</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11218377919</v>
+        <v>11218380988</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00004852689385</t>
+          <t>00002533936782</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ALISSON DA COSTA RAMOS</t>
+          <t>ANDREA GARCIA BIZUTI</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E6" t="n">
-        <v>629.5700000000001</v>
+        <v>727.67</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>121 / 01121837791-9</t>
+          <t>121 / 01121838098-8</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11218376432</v>
+        <v>11218384188</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00003365717285</t>
+          <t>00002527035582</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ANDERSON CARLOS MARSSO</t>
+          <t>APARECIDO JOSE FREITAS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E7" t="n">
-        <v>582.46</v>
+        <v>1307.54</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>121 / 01121837643-2</t>
+          <t>121 / 01121838418-8</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11218376424</v>
+        <v>11218383883</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00003424696986</t>
+          <t>00003377140280</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ANDERSON ELIAS FELISBINO</t>
+          <t>BRUNO MUNARAO ARRUDA</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E8" t="n">
-        <v>984.08</v>
+        <v>1300.88</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>121 / 01121837642-4</t>
+          <t>121 / 01121838388-3</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11218373082</v>
+        <v>11218378131</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>02638007600018</t>
+          <t>00001616504480</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ANGELA B DE O DE SOUZA 26805344840</t>
+          <t>CARLOS AUGUSTO DOS SANTOS</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E9" t="n">
-        <v>421.03</v>
+        <v>613.1799999999999</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>121 / 01121837308-2</t>
+          <t>121 / 01121837813-1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11218377075</v>
+        <v>11218383057</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00003654672787</t>
+          <t>00000423954687</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ANGELICA APARECIDA BONFIM</t>
+          <t>CARLOS CESAR DE AZEVEDO</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E10" t="n">
-        <v>679.88</v>
+        <v>2100.11</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>121 / 01121837707-5</t>
+          <t>121 / 01121838305-7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11218354462</v>
+        <v>11218378297</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00944112800016</t>
+          <t>00003443610986</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ANGELIS E MORAES LOCACOES LTDA</t>
+          <t>CARLOS HENRIQUE DA SILVA</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="E11" t="n">
-        <v>6634.92</v>
+        <v>552.45</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>121 / 01121835446-2</t>
+          <t>121 / 01121837829-7</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11218377364</v>
+        <v>11218382810</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00001739970284</t>
+          <t>00003303084688</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ANTONIO FERNANDES</t>
+          <t>CIBELE BORTOLOTO ROSSETTI</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E12" t="n">
-        <v>920.33</v>
+        <v>1944.53</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>121 / 01121837736-4</t>
+          <t>121 / 01121838281-0</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11218376978</v>
+        <v>11218380780</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00001221037862</t>
+          <t>00000358647789</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CARLOS ALBERTO DE P ALVES</t>
+          <t>CLARICE FICHER BRUNO</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E13" t="n">
-        <v>795.58</v>
+        <v>859.84</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>121 / 01121837697-8</t>
+          <t>121 / 01121838078-0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11218368363</v>
+        <v>11218375137</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00001088975682</t>
+          <t>00001623602289</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CLAUDEMIR DIDONE</t>
+          <t>CLAUDIONOR ALVES VIANA CAMPOS</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E14" t="n">
-        <v>1212.32</v>
+        <v>2176.13</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>121 / 01121836836-3</t>
+          <t>121 / 01121837513-7</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11218371300</v>
+        <v>11218377190</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00000515412783</t>
+          <t>00003166769188</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CLAUDIOCIRO FELIPE CARNEIRO</t>
+          <t>CUSTODIO ADRIANO DOS SANTOS</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="E15" t="n">
-        <v>736.38</v>
+        <v>1104.65</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>121 / 01121837130-0</t>
+          <t>121 / 01121837719-0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11218376861</v>
+        <v>11218373660</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00003207913288</t>
+          <t>00002205703986</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CRISTIANO SIMIONI</t>
+          <t>DAGOBERTO ESTEVAM VIEIRA MACHADO</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E16" t="n">
-        <v>579.86</v>
+        <v>1332.52</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>121 / 01121837686-1</t>
+          <t>121 / 01121837366-0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11218378081</v>
+        <v>11218380111</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00003394366886</t>
+          <t>00005009167069</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DANIELE BARBAROTO SIMAO RODRIGUES</t>
+          <t>DALMO ANTONIO DO CARMO</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E17" t="n">
-        <v>1155.03</v>
+        <v>356.71</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>121 / 01121837808-1</t>
+          <t>121 / 01121838011-1</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11218377760</v>
+        <v>11218382075</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>00002727095686</t>
+          <t>00000419057439</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DANIELE CRISTINA AGAPE GUERREIRO</t>
+          <t>DIONE VIEIRA DE SOUSA</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E18" t="n">
-        <v>1098.18</v>
+        <v>977.87</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>121 / 01121837776-0</t>
+          <t>121 / 01121838207-5</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11218362416</v>
+        <v>11218383610</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>00001319071384</t>
+          <t>03458379200019</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>DECIO HENRIQUE DE OLIVEIRA</t>
+          <t>E S T L TRANSPORTE E LOGISTICA EIRE</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
-        <v>45936</v>
+        <v>45939</v>
       </c>
       <c r="E19" t="n">
-        <v>1345.72</v>
+        <v>2458.07</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>121 / 01121836241-6</t>
+          <t>121 / 01121838361-0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11218377802</v>
+        <v>11218383289</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>00000707398738</t>
+          <t>00002299216782</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>DIEGO ALVES ROCHA</t>
+          <t>EDILSON LUIZ CARNEIRO DE C JUNIOR</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E20" t="n">
-        <v>1107.43</v>
+        <v>912.34</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>121 / 01121837780-2</t>
+          <t>121 / 01121838328-9</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11218354629</v>
+        <v>11218382786</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>00002208822587</t>
+          <t>00003239924188</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EDILSON AUGUSTO DA SILVA</t>
+          <t>EDIVAN SACCHI DE LIMA</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E21" t="n">
-        <v>861.1</v>
+        <v>953.47</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>121 / 01121835462-9</t>
+          <t>121 / 01121838278-6</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11218378172</v>
+        <v>11218380343</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>00000109905571</t>
+          <t>00003026611786</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EDNO ODILON SILVA DOS SANTOS</t>
+          <t>EDSON DE MATOS</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E22" t="n">
-        <v>994.91</v>
+        <v>2311.65</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>121 / 01121837817-2</t>
+          <t>121 / 01121838034-3</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11218377489</v>
+        <v>11218384279</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>00002306490180</t>
+          <t>00001583707280</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ELIAS DIAS DE SOUZA JUNIOR</t>
+          <t>EDSON FELIX SOARES</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E23" t="n">
-        <v>1048.87</v>
+        <v>446.04</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>121 / 01121837748-9</t>
+          <t>121 / 01121838427-9</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11218378057</v>
+        <v>11218347532</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>00002764879083</t>
+          <t>00002265220680</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FABIO APARECIDO DOS SANTOS</t>
+          <t>ELIENE GONCALVES RIBEIRO DOS SANTOS</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45938</v>
+        <v>45936</v>
       </c>
       <c r="E24" t="n">
-        <v>5693.81</v>
+        <v>1388.27</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>121 / 01121837805-7</t>
+          <t>121 / 01121834753-2</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11218371482</v>
+        <v>11218384162</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>00002234846684</t>
+          <t>00000750784555</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FERNANDO RAMOS</t>
+          <t>ELIVELTON XAVIER DA SILVA</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45937</v>
+        <v>45940</v>
       </c>
       <c r="E25" t="n">
-        <v>1980.97</v>
+        <v>643.8099999999999</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>121 / 01121837148-2</t>
+          <t>121 / 01121838416-2</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11218360048</v>
+        <v>11218382588</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>00003446664084</t>
+          <t>00002798524687</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FRANCISCO GUEDES TAVARES</t>
+          <t>ELZA BARBOSA DE ALMEIDA</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E26" t="n">
-        <v>1801.38</v>
+        <v>957.17</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>121 / 01121836004-8</t>
+          <t>121 / 01121838258-8</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11218378248</v>
+        <v>11218381705</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>00000790727986</t>
+          <t>00001473858283</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GERSON MARTINS DE SOUZA</t>
+          <t>EMERSON TETTI</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E27" t="n">
-        <v>1228.38</v>
+        <v>1446.21</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>121 / 01121837824-8</t>
+          <t>121 / 01121838170-5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11218369056</v>
+        <v>11218383941</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>00007924376283</t>
+          <t>00002892292581</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GILBERTO TOFOLI</t>
+          <t>FABIO DE SOUZA CORREA</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E28" t="n">
-        <v>564.8099999999999</v>
+        <v>701.59</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>121 / 01121836905-6</t>
+          <t>121 / 01121838394-1</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11218377927</v>
+        <v>11218381747</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>00000717256383</t>
+          <t>00003261765283</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GILMAR APARECIDO CONCEICAO</t>
+          <t>FABIO MAXIMO DOS SANTOS</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E29" t="n">
-        <v>759.3</v>
+        <v>1664.58</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>121 / 01121837792-7</t>
+          <t>121 / 01121838174-7</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11218353811</v>
+        <v>11218377620</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>00002756186384</t>
+          <t>00003010027788</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GISELE NASCIMENTO FRANCA DA SILVA</t>
+          <t>FERNANDA TEIXEIRA RODRIGUES</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="E30" t="n">
-        <v>433.24</v>
+        <v>785.34</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>121 / 01121835381-1</t>
+          <t>121 / 01121837762-0</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11218377893</v>
+        <v>11218383727</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>00003254642589</t>
+          <t>00003038095486</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GISELE QUINTINO FERREIRA GOMES</t>
+          <t>FERNANDO HENRIQUE MALAVASI</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E31" t="n">
-        <v>765.6</v>
+        <v>1483.29</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>121 / 01121837789-3</t>
+          <t>121 / 01121838372-7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11218377950</v>
+        <v>11218372811</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>00003639217888</t>
+          <t>00003100777280</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>HEBERTI RICARDO FIGUEIRA</t>
+          <t>GENILSON FRANCISCO DOS SANTOS</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E32" t="n">
-        <v>1123.06</v>
+        <v>960</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>121 / 01121837795-0</t>
+          <t>121 / 01121837281-1</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11218376945</v>
+        <v>11218381044</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00003152080085</t>
+          <t>00001249538882</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>HILDA VICENTE BETE</t>
+          <t>GUIOMAR APARECIDA FRANZIN MENEGHINI</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
         <v>45938</v>
       </c>
       <c r="E33" t="n">
-        <v>1297.35</v>
+        <v>1555.82</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>121 / 01121837694-5</t>
+          <t>121 / 01121838104-4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11218377703</v>
+        <v>11218382505</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>00003464579484</t>
+          <t>00004539489488</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>JANIO CEAR SANTOS BARRETO</t>
+          <t>HIGOR JOSE DA SILVA</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E34" t="n">
-        <v>3960.88</v>
+        <v>915.6799999999999</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>121 / 01121837770-3</t>
+          <t>121 / 01121838250-5</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11218358570</v>
+        <v>11218382869</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>00002163002489</t>
+          <t>00002170360280</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JEFFERSON APARECIDO NICOLE</t>
+          <t>JEFFERSON DONIZETI DOS SANTOS</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E35" t="n">
-        <v>808.37</v>
+        <v>973.62</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>121 / 01121835857-0</t>
+          <t>121 / 01121838286-9</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11218359107</v>
+        <v>11218382968</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>00002915317437</t>
+          <t>00000167013688</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JOAO FRANCISCO DE PINHO</t>
+          <t>JOAO ANTONIO ORTIZ DE CAMARGO</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E36" t="n">
-        <v>1199.99</v>
+        <v>4584.83</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>121 / 01121835910-7</t>
+          <t>121 / 01121838296-8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11218371110</v>
+        <v>11218379675</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>00000562467297</t>
+          <t>00002601878282</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JOSE LUIS MACHADO</t>
+          <t>JOSE LAURINDO DA SILVA</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E37" t="n">
-        <v>883.17</v>
+        <v>670.96</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>121 / 01121837111-0</t>
+          <t>121 / 01121837967-5</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11218374593</v>
+        <v>11218366292</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>00003332471880</t>
+          <t>00000089323769</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JULIANA APARECIDA BARBISAN CABRAL</t>
+          <t>JOSE REINALDO GONCALVES TAVARES</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="E38" t="n">
-        <v>1819.4</v>
+        <v>793.63</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>121 / 01121837459-3</t>
+          <t>121 / 01121836629-2</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>11218377455</v>
+        <v>11218383685</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>00003143941987</t>
+          <t>00000612073661</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>LIDYARA MARIA MARCAL</t>
+          <t>JOZIMAR RAIMUNDO GARCIAS</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E39" t="n">
-        <v>390.97</v>
+        <v>2440.88</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>121 / 01121837745-5</t>
+          <t>121 / 01121838368-5</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11218376879</v>
+        <v>11218384055</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>00002173970089</t>
+          <t>00001275926584</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>LUCAS DANILO SERAPIAO</t>
+          <t>JULIO CESAR SANTOS</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E40" t="n">
-        <v>2895.26</v>
+        <v>1332.26</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>121 / 01121837687-9</t>
+          <t>121 / 01121838405-5</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11218377430</v>
+        <v>11218383560</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>00002572415186</t>
+          <t>00002648643281</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>MARCELO PEIXOTO DE LIMA</t>
+          <t>KATIA DA SILVA PINTO</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E41" t="n">
-        <v>1493.52</v>
+        <v>1159.69</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>121 / 01121837743-0</t>
+          <t>121 / 01121838356-0</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11218373066</v>
+        <v>11218383164</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00002788281382</t>
+          <t>00000285915312</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>MARCIO BAPTISTA FERREIRA</t>
+          <t>KELLY KAROLINE C DE SOUZA</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E42" t="n">
-        <v>935.25</v>
+        <v>1658.42</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>121 / 01121837306-6</t>
+          <t>121 / 01121838316-4</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11218376259</v>
+        <v>11218356830</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>00004145681487</t>
+          <t>00003444066988</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>MARCOS APARECIDO LEANDRO</t>
+          <t>LEILIANE RODRIGUES VIEIRA</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45938</v>
+        <v>45937</v>
       </c>
       <c r="E43" t="n">
-        <v>567.35</v>
+        <v>1277.46</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>121 / 01121837625-9</t>
+          <t>121 / 01121835683-0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11218378222</v>
+        <v>11218375897</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>00001423449681</t>
+          <t>00001420874080</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>MARGARETE DE OLIVEIRA</t>
+          <t>LUCIACLEIDE DA COSTA E SILVA</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
         <v>45938</v>
       </c>
       <c r="E44" t="n">
-        <v>1445.45</v>
+        <v>1208.41</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>121 / 01121837822-2</t>
+          <t>121 / 01121837589-7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11218360147</v>
+        <v>11218381218</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>00001496515480</t>
+          <t>00002462255788</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>MARIA IZILDINHA SOARES</t>
+          <t>LUCIANO MASSATERU MIYASHIRO</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E45" t="n">
-        <v>636.84</v>
+        <v>5000</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>121 / 01121836014-7</t>
+          <t>121 / 01121838121-8</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11218367993</v>
+        <v>11218380558</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>00001809244188</t>
+          <t>00000584183380</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>MARIA NEUSA DE ARAUJO MOURA</t>
+          <t>LUIZ ANTONIO ALVES</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E46" t="n">
-        <v>675.9299999999999</v>
+        <v>874.4</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>121 / 01121836799-3</t>
+          <t>121 / 01121838055-8</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11218377034</v>
+        <v>11218382224</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>00001125541563</t>
+          <t>00001326150189</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MELQUISSALEM VIEIRA DE AGUIAR</t>
+          <t>MARCELO DA SILVA ALVES</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E47" t="n">
-        <v>1598.15</v>
+        <v>1310.61</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>121 / 01121837703-4</t>
+          <t>121 / 01121838222-4</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11218372472</v>
+        <v>11218379923</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>00002819109187</t>
+          <t>00001088706363</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MICHELE FRANCISCO BORGES</t>
+          <t>MARCIANO HERNANDES MATEUS GONCALVES</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E48" t="n">
-        <v>799.98</v>
+        <v>1299.39</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>121 / 01121837247-2</t>
+          <t>121 / 01121837992-3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11218377000</v>
+        <v>11218380426</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>00003444437986</t>
+          <t>00000584260989</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MILENI GIANGIULIO LOURENCO</t>
+          <t>MARIA TORQUATO PAREDES FERRARI</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E49" t="n">
-        <v>1244.43</v>
+        <v>999.7</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>121 / 01121837700-0</t>
+          <t>121 / 01121838042-6</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11218378073</v>
+        <v>11218382000</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>00000826347886</t>
+          <t>00003505144380</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>NAIR DOS SANTOS LIMA SILVEIRA</t>
+          <t>MAURICIO DOS SANTOS</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E50" t="n">
-        <v>1144.92</v>
+        <v>1762.41</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>121 / 01121837807-3</t>
+          <t>121 / 01121838200-0</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11218353456</v>
+        <v>11218382539</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>00001428073280</t>
+          <t>00001706869380</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>REGINALDO AMARAL</t>
+          <t>MAURICIO JOAQUIM DOS SANTOS</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E51" t="n">
-        <v>439.88</v>
+        <v>3470.51</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>121 / 01121835345-6</t>
+          <t>121 / 01121838253-9</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11218377232</v>
+        <v>11218377091</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>00001481137689</t>
+          <t>00003361368189</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>REGINALDO FERREIRA DA SILVA</t>
+          <t>MONICA XAVIER DOS SANTOS</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="E52" t="n">
-        <v>653.12</v>
+        <v>1084.25</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>121 / 01121837723-2</t>
+          <t>121 / 01121837709-1</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11218377737</v>
+        <v>11218381846</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>00002822958289</t>
+          <t>00002779519789</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>REINALDO APARECIDO GUERRA</t>
+          <t>ODAIR JOSE DO CARMO</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E53" t="n">
-        <v>1034.45</v>
+        <v>1161.42</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>121 / 01121837773-7</t>
+          <t>121 / 01121838184-6</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11218377869</v>
+        <v>11218382562</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>00003506906283</t>
+          <t>00001859378587</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>RICARDO AURELIO R DOS SANTOS</t>
+          <t>OSWALDO BONFIM JUNIOR</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E54" t="n">
-        <v>1050.46</v>
+        <v>1843.07</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>121 / 01121837786-9</t>
+          <t>121 / 01121838256-2</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11218378123</v>
+        <v>11218382356</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>00002954548282</t>
+          <t>00002868551580</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>RIMENIS OLIVEIRA SANTOS</t>
+          <t>PATRICIA ELENA DE MORAES PINTO</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E55" t="n">
-        <v>890.8099999999999</v>
+        <v>1070.23</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>121 / 01121837812-3</t>
+          <t>121 / 01121838235-6</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11218376929</v>
+        <v>11218377646</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>00003464819280</t>
+          <t>00003495064680</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>ROBEVALDO DANIEL DE BRITO</t>
+          <t>PRISCILA SANTOS VIEIRA DA SILVA</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
         <v>45938</v>
       </c>
       <c r="E56" t="n">
-        <v>1279.79</v>
+        <v>1084.24</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>121 / 01121837692-9</t>
+          <t>121 / 01121837764-6</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11218376499</v>
+        <v>11218380806</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>00003421964483</t>
+          <t>00003919799186</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RODOLFO RODRIGO RIBEIRO DO PRADO</t>
+          <t>RAFAEL LUIZ DA SILVA</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E57" t="n">
-        <v>1233.11</v>
+        <v>1452.53</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>121 / 01121837649-9</t>
+          <t>121 / 01121838080-6</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11218377828</v>
+        <v>11218376226</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>00000883657066</t>
+          <t>00002761668588</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RODRIGO ANTONIO PEREIRA</t>
+          <t>RAQUEL PIFER</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
         <v>45938</v>
       </c>
       <c r="E58" t="n">
-        <v>1388.06</v>
+        <v>1307.57</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>121 / 01121837782-8</t>
+          <t>121 / 01121837622-6</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11218377380</v>
+        <v>11218383586</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>00002977035389</t>
+          <t>00001922344486</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>RODRIGO FELIX ORSI</t>
+          <t>REINALDO CASSIANO MARCONDES LORENA</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E59" t="n">
-        <v>705.26</v>
+        <v>599.4400000000001</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>121 / 01121837738-0</t>
+          <t>121 / 01121838358-6</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11218377281</v>
+        <v>11218383743</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>00003275815784</t>
+          <t>00003156998184</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>RODRIGO PRADO SABUGARI</t>
+          <t>RENATA GIBIN DE CASTRO RIBEIRO</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E60" t="n">
-        <v>1845.54</v>
+        <v>414.66</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>121 / 01121837728-1</t>
+          <t>121 / 01121838374-3</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11218377539</v>
+        <v>11218380392</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>00003446672885</t>
+          <t>00008098599841</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>RONALSO TAVARES DOS SANTOS</t>
+          <t>ROSIMEIRE CARVALHO MATIAS</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E61" t="n">
-        <v>923.98</v>
+        <v>1066.44</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>121 / 01121837753-9</t>
+          <t>121 / 01121838039-2</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11218374932</v>
+        <v>11218352755</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>00000175513686</t>
+          <t>00003009357486</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ROSANGELA MALDONADO DOS SANTOS</t>
+          <t>ROZELI DIAS RODRIGUES</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
         <v>45937</v>
       </c>
       <c r="E62" t="n">
-        <v>1029.12</v>
+        <v>1373.81</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>121 / 01121837493-2</t>
+          <t>121 / 01121835275-5</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11218352441</v>
+        <v>11218378412</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>00003410857788</t>
+          <t>00000578733609</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>ROSELANGELA MOREIRA DA SILVA</t>
+          <t>SAMUEL SALAZAR MARTINS</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45937</v>
+        <v>45940</v>
       </c>
       <c r="E63" t="n">
-        <v>975.58</v>
+        <v>1495.19</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>121 / 01121835244-1</t>
+          <t>121 / 01121837841-2</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11218373173</v>
+        <v>11218379790</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>00002708356585</t>
+          <t>00001003709389</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>ROSEMBERG CUSTODIO</t>
+          <t>SELMA GOMES</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E64" t="n">
-        <v>2075.83</v>
+        <v>1106.05</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>121 / 01121837317-3</t>
+          <t>121 / 01121837979-0</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11218376218</v>
+        <v>11218382893</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>00001679092987</t>
+          <t>00003393829084</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>SANDRA CRISTINA STURION</t>
+          <t>THAIS GIMENES GRECO</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E65" t="n">
-        <v>645.66</v>
+        <v>1682.01</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>121 / 01121837621-8</t>
+          <t>121 / 01121838289-3</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11218378099</v>
+        <v>11218380269</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>00000280257481</t>
+          <t>00002585386686</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>SERGIO DONIZETE MUNHOZ</t>
+          <t>VALDELEIA CORREA DE LEMOS PEREIRA</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E66" t="n">
-        <v>911.6900000000001</v>
+        <v>948.21</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>121 / 01121837809-9</t>
+          <t>121 / 01121838026-9</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>11218357200</v>
+        <v>11218380350</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>00001955712182</t>
+          <t>00000527728381</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SILVIA APARECIDA FERREIRA</t>
+          <t>WELTON MORAIS DA SILVA</t>
         </is>
       </c>
       <c r="D67" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E67" t="n">
-        <v>1465.66</v>
+        <v>844.3</v>
       </c>
       <c r="F67" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.57636625189</v>
       </c>
       <c r="G67" s="3" t="n">
-        <v>45938.48029575813</v>
+        <v>45939.54166666666</v>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>121 / 01121835720-0</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="n">
-        <v>11218357820</v>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>00001129541789</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>SILVIA REGINA LUCAS DE SOUZA</t>
-        </is>
-      </c>
-      <c r="D68" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1243.64</v>
-      </c>
-      <c r="F68" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="G68" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>121 / 01121835782-0</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="n">
-        <v>11218376903</v>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>00001694535380</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>SOLANGE MARIA DA ROCHA XAVIER</t>
-        </is>
-      </c>
-      <c r="D69" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="E69" t="n">
-        <v>1349.04</v>
-      </c>
-      <c r="F69" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="G69" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>121 / 01121837690-3</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="n">
-        <v>11218377596</v>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>00002780861681</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>SUSIMAR CRISTINA TAVARES ORLANDO</t>
-        </is>
-      </c>
-      <c r="D70" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="E70" t="n">
-        <v>1361.75</v>
-      </c>
-      <c r="F70" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="G70" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>121 / 01121837759-6</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="n">
-        <v>11218374494</v>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>00003625983885</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>THAMIRES ALVES DOS A RODRIGUES</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="E71" t="n">
-        <v>1891.88</v>
-      </c>
-      <c r="F71" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="G71" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>121 / 01121837449-4</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="n">
-        <v>11218373488</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>00002566263884</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>THELMA CRISTINA NOGUEIRA DE TOLEDO</t>
-        </is>
-      </c>
-      <c r="D72" s="2" t="n">
-        <v>45937</v>
-      </c>
-      <c r="E72" t="n">
-        <v>472.04</v>
-      </c>
-      <c r="F72" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="G72" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>121 / 01121837348-8</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="n">
-        <v>11218376028</v>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>00000232974985</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>VALDINEI ALMEIDA DA SILVA</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="E73" t="n">
-        <v>1105.24</v>
-      </c>
-      <c r="F73" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="G73" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>121 / 01121837602-8</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="n">
-        <v>11218365039</v>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>00000524652252</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>VALDIR DE JESUS PEREIRA JUNIOR</t>
-        </is>
-      </c>
-      <c r="D74" s="2" t="n">
-        <v>45936</v>
-      </c>
-      <c r="E74" t="n">
-        <v>839.51</v>
-      </c>
-      <c r="F74" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="G74" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>121 / 01121836503-9</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="n">
-        <v>11218376937</v>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>00001519974884</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>VINICIUS VAZ NAZARIO</t>
-        </is>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>45938</v>
-      </c>
-      <c r="E75" t="n">
-        <v>1105.41</v>
-      </c>
-      <c r="F75" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="G75" s="3" t="n">
-        <v>45938.48029575813</v>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>121 / 01121837693-7</t>
+          <t>121 / 01121838035-0</t>
         </is>
       </c>
     </row>

--- a/debug_transformacao.xlsx
+++ b/debug_transformacao.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H67"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,2113 +484,4705 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11218383859</v>
+        <v>11218384923</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>02718772400014</t>
+          <t>00000425206459</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ALINE FERNANDA RIBEIRO PESSOA</t>
+          <t>ADANILO FARIAS DE SANTANA</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E2" t="n">
-        <v>2364.92</v>
+        <v>372.09</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G2" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>121 / 01121838385-9</t>
+          <t>121 / 01121838492-3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11218365682</v>
+        <v>11218383859</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>00000207582947</t>
+          <t>02718772400014</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AMARO GOMES DA SILVA</t>
+          <t>ALINE FERNANDA RIBEIRO PESSOA</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E3" t="n">
-        <v>569.26</v>
+        <v>2364.92</v>
       </c>
       <c r="F3" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G3" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>121 / 01121836568-2</t>
+          <t>121 / 01121838385-9</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>11218381721</v>
+        <v>11218365682</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>00002284272088</t>
+          <t>00000207582947</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ANDRE ALVES DA SILVA</t>
+          <t>AMARO GOMES DA SILVA</t>
         </is>
       </c>
       <c r="D4" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E4" t="n">
-        <v>3357.52</v>
+        <v>569.26</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G4" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>121 / 01121838172-1</t>
+          <t>121 / 01121836568-2</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>11218363307</v>
+        <v>11218385615</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>00004220202480</t>
+          <t>00004204586589</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ANDRE LUIS MOLINA DE SOUZA</t>
+          <t>ANA BEATRIZ RAMOS RODRIGUES</t>
         </is>
       </c>
       <c r="D5" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E5" t="n">
-        <v>1369.42</v>
+        <v>1531.38</v>
       </c>
       <c r="F5" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G5" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>121 / 01121836330-7</t>
+          <t>121 / 01121838561-5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>11218380988</v>
+        <v>11218383842</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>00002533936782</t>
+          <t>00000177038756</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ANDREA GARCIA BIZUTI</t>
+          <t>ANA MARIA DA CRUZ LIMA</t>
         </is>
       </c>
       <c r="D6" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E6" t="n">
-        <v>727.67</v>
+        <v>1487.85</v>
       </c>
       <c r="F6" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G6" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>121 / 01121838098-8</t>
+          <t>121 / 01121838384-2</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>11218384188</v>
+        <v>11218381721</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>00002527035582</t>
+          <t>00002284272088</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>APARECIDO JOSE FREITAS DE OLIVEIRA</t>
+          <t>ANDRE ALVES DA SILVA</t>
         </is>
       </c>
       <c r="D7" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E7" t="n">
-        <v>1307.54</v>
+        <v>3357.52</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>121 / 01121838418-8</t>
+          <t>121 / 01121838172-1</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>11218383883</v>
+        <v>11218384592</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>00003377140280</t>
+          <t>00002220782581</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>BRUNO MUNARAO ARRUDA</t>
+          <t>ANDRE DAMIS ROMAN</t>
         </is>
       </c>
       <c r="D8" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E8" t="n">
-        <v>1300.88</v>
+        <v>1550.1</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>121 / 01121838388-3</t>
+          <t>121 / 01121838459-2</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>11218378131</v>
+        <v>11218385201</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>00001616504480</t>
+          <t>00002955661180</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CARLOS AUGUSTO DOS SANTOS</t>
+          <t>ANDRE LUIS DOS SANTOS</t>
         </is>
       </c>
       <c r="D9" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E9" t="n">
-        <v>613.1799999999999</v>
+        <v>859.48</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>121 / 01121837813-1</t>
+          <t>121 / 01121838520-1</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11218383057</v>
+        <v>11218363307</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>00000423954687</t>
+          <t>00004220202480</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CARLOS CESAR DE AZEVEDO</t>
+          <t>ANDRE LUIS MOLINA DE SOUZA</t>
         </is>
       </c>
       <c r="D10" s="2" t="n">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="E10" t="n">
-        <v>2100.11</v>
+        <v>1369.42</v>
       </c>
       <c r="F10" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>121 / 01121838305-7</t>
+          <t>121 / 01121836330-7</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>11218378297</v>
+        <v>11218380988</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>00003443610986</t>
+          <t>00002533936782</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>CARLOS HENRIQUE DA SILVA</t>
+          <t>ANDREA GARCIA BIZUTI</t>
         </is>
       </c>
       <c r="D11" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E11" t="n">
-        <v>552.45</v>
+        <v>727.67</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>121 / 01121837829-7</t>
+          <t>121 / 01121838098-8</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>11218382810</v>
+        <v>11218383636</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>00003303084688</t>
+          <t>00002175240584</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>CIBELE BORTOLOTO ROSSETTI</t>
+          <t>ANGELA CAROLINA MASSOLI ALAMINO</t>
         </is>
       </c>
       <c r="D12" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E12" t="n">
-        <v>1944.53</v>
+        <v>962.3099999999999</v>
       </c>
       <c r="F12" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G12" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>121 / 01121838281-0</t>
+          <t>121 / 01121838363-6</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>11218380780</v>
+        <v>11218385862</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>00000358647789</t>
+          <t>00000184461391</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CLARICE FICHER BRUNO</t>
+          <t>ANTONIO DE MATTOS</t>
         </is>
       </c>
       <c r="D13" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E13" t="n">
-        <v>859.84</v>
+        <v>558.21</v>
       </c>
       <c r="F13" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G13" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>121 / 01121838078-0</t>
+          <t>121 / 01121838586-2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>11218375137</v>
+        <v>11218385573</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>00001623602289</t>
+          <t>00000911707980</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CLAUDIONOR ALVES VIANA CAMPOS</t>
+          <t>ANTONIO DE OLIVEIRA ARAUJO</t>
         </is>
       </c>
       <c r="D14" s="2" t="n">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="E14" t="n">
-        <v>2176.13</v>
+        <v>3738.04</v>
       </c>
       <c r="F14" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G14" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>121 / 01121837513-7</t>
+          <t>121 / 01121838557-3</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>11218377190</v>
+        <v>11218382448</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>00003166769188</t>
+          <t>00001467851485</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CUSTODIO ADRIANO DOS SANTOS</t>
+          <t>ANTONIO RAULINO CHAGAS JUNIOR</t>
         </is>
       </c>
       <c r="D15" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E15" t="n">
-        <v>1104.65</v>
+        <v>982.42</v>
       </c>
       <c r="F15" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G15" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>121 / 01121837719-0</t>
+          <t>121 / 01121838244-8</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>11218373660</v>
+        <v>11218384188</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>00002205703986</t>
+          <t>00002527035582</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>DAGOBERTO ESTEVAM VIEIRA MACHADO</t>
+          <t>APARECIDO JOSE FREITAS DE OLIVEIRA</t>
         </is>
       </c>
       <c r="D16" s="2" t="n">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="E16" t="n">
-        <v>1332.52</v>
+        <v>1307.54</v>
       </c>
       <c r="F16" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G16" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>121 / 01121837366-0</t>
+          <t>121 / 01121838418-8</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>11218380111</v>
+        <v>11218367233</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>00005009167069</t>
+          <t>00000706990781</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>DALMO ANTONIO DO CARMO</t>
+          <t>ARNALDO BALDIVIA</t>
         </is>
       </c>
       <c r="D17" s="2" t="n">
-        <v>45939</v>
+        <v>45937</v>
       </c>
       <c r="E17" t="n">
-        <v>356.71</v>
+        <v>2896.1</v>
       </c>
       <c r="F17" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G17" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>121 / 01121838011-1</t>
+          <t>121 / 01121836723-3</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>11218382075</v>
+        <v>11218381028</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>00000419057439</t>
+          <t>00000200027182</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>DIONE VIEIRA DE SOUSA</t>
+          <t>BENEDITO APARECIDO LOURENÇO</t>
         </is>
       </c>
       <c r="D18" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E18" t="n">
-        <v>977.87</v>
+        <v>537.0599999999999</v>
       </c>
       <c r="F18" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G18" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>121 / 01121838207-5</t>
+          <t>121 / 01121838102-8</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11218383610</v>
+        <v>11218384220</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>03458379200019</t>
+          <t>00004711033785</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>E S T L TRANSPORTE E LOGISTICA EIRE</t>
+          <t>BRUNO FERNANDES DA SILVA</t>
         </is>
       </c>
       <c r="D19" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E19" t="n">
-        <v>2458.07</v>
+        <v>550</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G19" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>121 / 01121838361-0</t>
+          <t>121 / 01121838422-0</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11218383289</v>
+        <v>11218383883</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>00002299216782</t>
+          <t>00003377140280</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EDILSON LUIZ CARNEIRO DE C JUNIOR</t>
+          <t>BRUNO MUNARAO ARRUDA</t>
         </is>
       </c>
       <c r="D20" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E20" t="n">
-        <v>912.34</v>
+        <v>1300.88</v>
       </c>
       <c r="F20" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G20" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>121 / 01121838328-9</t>
+          <t>121 / 01121838388-3</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>11218382786</v>
+        <v>11218382257</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>00003239924188</t>
+          <t>00003198283680</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EDIVAN SACCHI DE LIMA</t>
+          <t>CAMILA PIRES MAIA</t>
         </is>
       </c>
       <c r="D21" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E21" t="n">
-        <v>953.47</v>
+        <v>2259.83</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G21" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>121 / 01121838278-6</t>
+          <t>121 / 01121838225-7</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>11218380343</v>
+        <v>11218378131</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>00003026611786</t>
+          <t>00001616504480</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EDSON DE MATOS</t>
+          <t>CARLOS AUGUSTO DOS SANTOS</t>
         </is>
       </c>
       <c r="D22" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E22" t="n">
-        <v>2311.65</v>
+        <v>613.1799999999999</v>
       </c>
       <c r="F22" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G22" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>121 / 01121838034-3</t>
+          <t>121 / 01121837813-1</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>11218384279</v>
+        <v>11218383057</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>00001583707280</t>
+          <t>00000423954687</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EDSON FELIX SOARES</t>
+          <t>CARLOS CESAR DE AZEVEDO</t>
         </is>
       </c>
       <c r="D23" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E23" t="n">
-        <v>446.04</v>
+        <v>2100.11</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G23" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>121 / 01121838427-9</t>
+          <t>121 / 01121838305-7</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>11218347532</v>
+        <v>11218378297</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>00002265220680</t>
+          <t>00003443610986</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ELIENE GONCALVES RIBEIRO DOS SANTOS</t>
+          <t>CARLOS HENRIQUE DA SILVA</t>
         </is>
       </c>
       <c r="D24" s="2" t="n">
-        <v>45936</v>
+        <v>45938</v>
       </c>
       <c r="E24" t="n">
-        <v>1388.27</v>
+        <v>552.45</v>
       </c>
       <c r="F24" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G24" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>121 / 01121834753-2</t>
+          <t>121 / 01121837829-7</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>11218384162</v>
+        <v>11218384998</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>00000750784555</t>
+          <t>00002188596986</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ELIVELTON XAVIER DA SILVA</t>
+          <t>CARLOS HENRIQUE FERREIRA DA ROCHA</t>
         </is>
       </c>
       <c r="D25" s="2" t="n">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="E25" t="n">
-        <v>643.8099999999999</v>
+        <v>3416.17</v>
       </c>
       <c r="F25" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G25" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>121 / 01121838416-2</t>
+          <t>121 / 01121838499-8</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>11218382588</v>
+        <v>11218382745</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>00002798524687</t>
+          <t>00002372047183</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ELZA BARBOSA DE ALMEIDA</t>
+          <t>CAROLINE ALICE SILVESTRE NONATO</t>
         </is>
       </c>
       <c r="D26" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="E26" t="n">
-        <v>957.17</v>
+        <v>534.5</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G26" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>121 / 01121838258-8</t>
+          <t>121 / 01121838274-5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>11218381705</v>
+        <v>11218379642</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>00001473858283</t>
+          <t>00002976529884</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EMERSON TETTI</t>
+          <t>CHRISTIANO BARBOSA DA SILVA</t>
         </is>
       </c>
       <c r="D27" s="2" t="n">
-        <v>45940</v>
+        <v>45938</v>
       </c>
       <c r="E27" t="n">
-        <v>1446.21</v>
+        <v>6000</v>
       </c>
       <c r="F27" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G27" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>121 / 01121838170-5</t>
+          <t>121 / 01121837964-2</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>11218383941</v>
+        <v>11218382810</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>00002892292581</t>
+          <t>00003303084688</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FABIO DE SOUZA CORREA</t>
+          <t>CIBELE BORTOLOTO ROSSETTI</t>
         </is>
       </c>
       <c r="D28" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E28" t="n">
-        <v>701.59</v>
+        <v>1944.53</v>
       </c>
       <c r="F28" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G28" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>121 / 01121838394-1</t>
+          <t>121 / 01121838281-0</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>11218381747</v>
+        <v>11218380780</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>00003261765283</t>
+          <t>00000358647789</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FABIO MAXIMO DOS SANTOS</t>
+          <t>CLARICE FICHER BRUNO</t>
         </is>
       </c>
       <c r="D29" s="2" t="n">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="E29" t="n">
-        <v>1664.58</v>
+        <v>859.84</v>
       </c>
       <c r="F29" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G29" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>121 / 01121838174-7</t>
+          <t>121 / 01121838078-0</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>11218377620</v>
+        <v>11218383891</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>00003010027788</t>
+          <t>00002638150282</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>FERNANDA TEIXEIRA RODRIGUES</t>
+          <t>CLAUDIANOR BEZERRA DA SILVA</t>
         </is>
       </c>
       <c r="D30" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E30" t="n">
-        <v>785.34</v>
+        <v>275</v>
       </c>
       <c r="F30" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G30" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>121 / 01121837762-0</t>
+          <t>121 / 01121838389-1</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>11218383727</v>
+        <v>11218375137</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>00003038095486</t>
+          <t>00001623602289</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>FERNANDO HENRIQUE MALAVASI</t>
+          <t>CLAUDIONOR ALVES VIANA CAMPOS</t>
         </is>
       </c>
       <c r="D31" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E31" t="n">
-        <v>1483.29</v>
+        <v>2176.13</v>
       </c>
       <c r="F31" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G31" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>121 / 01121838372-7</t>
+          <t>121 / 01121837513-7</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>11218372811</v>
+        <v>11218383974</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>00003100777280</t>
+          <t>00003529198080</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>GENILSON FRANCISCO DOS SANTOS</t>
+          <t>CLEONICE MARIA DA SILVA</t>
         </is>
       </c>
       <c r="D32" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="E32" t="n">
-        <v>960</v>
+        <v>892.02</v>
       </c>
       <c r="F32" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G32" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>121 / 01121837281-1</t>
+          <t>121 / 01121838397-4</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>11218381044</v>
+        <v>11218382083</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>00001249538882</t>
+          <t>00002798313384</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GUIOMAR APARECIDA FRANZIN MENEGHINI</t>
+          <t>CRISTIANE DA SILVA SANTOS</t>
         </is>
       </c>
       <c r="D33" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E33" t="n">
-        <v>1555.82</v>
+        <v>487.64</v>
       </c>
       <c r="F33" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G33" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>121 / 01121838104-4</t>
+          <t>121 / 01121838208-3</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>11218382505</v>
+        <v>11218377190</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>00004539489488</t>
+          <t>00003166769188</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>HIGOR JOSE DA SILVA</t>
+          <t>CUSTODIO ADRIANO DOS SANTOS</t>
         </is>
       </c>
       <c r="D34" s="2" t="n">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="E34" t="n">
-        <v>915.6799999999999</v>
+        <v>1104.65</v>
       </c>
       <c r="F34" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G34" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>121 / 01121838250-5</t>
+          <t>121 / 01121837719-0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>11218382869</v>
+        <v>11218373660</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>00002170360280</t>
+          <t>00002205703986</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>JEFFERSON DONIZETI DOS SANTOS</t>
+          <t>DAGOBERTO ESTEVAM VIEIRA MACHADO</t>
         </is>
       </c>
       <c r="D35" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E35" t="n">
-        <v>973.62</v>
+        <v>1332.52</v>
       </c>
       <c r="F35" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G35" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>121 / 01121838286-9</t>
+          <t>121 / 01121837366-0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>11218382968</v>
+        <v>11218384808</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>00000167013688</t>
+          <t>00002299587489</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>JOAO ANTONIO ORTIZ DE CAMARGO</t>
+          <t>DAIANE MARIANA LUCIO</t>
         </is>
       </c>
       <c r="D36" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E36" t="n">
-        <v>4584.83</v>
+        <v>945.29</v>
       </c>
       <c r="F36" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G36" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>121 / 01121838296-8</t>
+          <t>121 / 01121838480-8</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>11218379675</v>
+        <v>11218380111</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>00002601878282</t>
+          <t>00005009167069</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>JOSE LAURINDO DA SILVA</t>
+          <t>DALMO ANTONIO DO CARMO</t>
         </is>
       </c>
       <c r="D37" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E37" t="n">
-        <v>670.96</v>
+        <v>356.71</v>
       </c>
       <c r="F37" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G37" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>121 / 01121837967-5</t>
+          <t>121 / 01121838011-1</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>11218366292</v>
+        <v>11218383156</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>00000089323769</t>
+          <t>00004169122283</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>JOSE REINALDO GONCALVES TAVARES</t>
+          <t>DAMIANA TEODORA DOS SANTOS ARANTES</t>
         </is>
       </c>
       <c r="D38" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E38" t="n">
-        <v>793.63</v>
+        <v>916.71</v>
       </c>
       <c r="F38" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G38" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>121 / 01121836629-2</t>
+          <t>121 / 01121838315-6</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>11218383685</v>
+        <v>11218386910</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>00000612073661</t>
+          <t>00003503255281</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>JOZIMAR RAIMUNDO GARCIAS</t>
+          <t>DANYEL DALLE NOGARE ALVES RIBEIRO</t>
         </is>
       </c>
       <c r="D39" s="2" t="n">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="E39" t="n">
-        <v>2440.88</v>
+        <v>794.88</v>
       </c>
       <c r="F39" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G39" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>121 / 01121838368-5</t>
+          <t>121 / 01121838691-0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>11218384055</v>
+        <v>11218383321</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>00001275926584</t>
+          <t>00001507735880</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>JULIO CESAR SANTOS</t>
+          <t>DARCI STABILE</t>
         </is>
       </c>
       <c r="D40" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E40" t="n">
-        <v>1332.26</v>
+        <v>1975.67</v>
       </c>
       <c r="F40" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G40" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>121 / 01121838405-5</t>
+          <t>121 / 01121838332-1</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>11218383560</v>
+        <v>11218385607</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>00002648643281</t>
+          <t>00002183629584</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>KATIA DA SILVA PINTO</t>
+          <t>DAVI FERNANDO DOS SANTOS PIRES</t>
         </is>
       </c>
       <c r="D41" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E41" t="n">
-        <v>1159.69</v>
+        <v>797.1900000000001</v>
       </c>
       <c r="F41" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G41" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>121 / 01121838356-0</t>
+          <t>121 / 01121838560-7</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>11218383164</v>
+        <v>11218383339</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>00000285915312</t>
+          <t>00003124327411</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>KELLY KAROLINE C DE SOUZA</t>
+          <t>DENILZO DUARTE DA COSTA</t>
         </is>
       </c>
       <c r="D42" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E42" t="n">
-        <v>1658.42</v>
+        <v>3763.19</v>
       </c>
       <c r="F42" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G42" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>121 / 01121838316-4</t>
+          <t>121 / 01121838333-9</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>11218356830</v>
+        <v>11218382075</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>00003444066988</t>
+          <t>00000419057439</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>LEILIANE RODRIGUES VIEIRA</t>
+          <t>DIONE VIEIRA DE SOUSA</t>
         </is>
       </c>
       <c r="D43" s="2" t="n">
-        <v>45937</v>
+        <v>45939</v>
       </c>
       <c r="E43" t="n">
-        <v>1277.46</v>
+        <v>977.87</v>
       </c>
       <c r="F43" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G43" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>121 / 01121835683-0</t>
+          <t>121 / 01121838207-5</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>11218375897</v>
+        <v>11218367977</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>00001420874080</t>
+          <t>00004541820919</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>LUCIACLEIDE DA COSTA E SILVA</t>
+          <t>DONIZETE MACARIO VIEIRA</t>
         </is>
       </c>
       <c r="D44" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E44" t="n">
-        <v>1208.41</v>
+        <v>1224.86</v>
       </c>
       <c r="F44" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G44" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>121 / 01121837589-7</t>
+          <t>121 / 01121836797-7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>11218381218</v>
+        <v>11218383610</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>00002462255788</t>
+          <t>03458379200019</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>LUCIANO MASSATERU MIYASHIRO</t>
+          <t>E S T L TRANSPORTE E LOGISTICA EIRE</t>
         </is>
       </c>
       <c r="D45" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E45" t="n">
-        <v>5000</v>
+        <v>2458.07</v>
       </c>
       <c r="F45" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G45" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>121 / 01121838121-8</t>
+          <t>121 / 01121838361-0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>11218380558</v>
+        <v>11218383289</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>00000584183380</t>
+          <t>00002299216782</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>LUIZ ANTONIO ALVES</t>
+          <t>EDILSON LUIZ CARNEIRO DE C JUNIOR</t>
         </is>
       </c>
       <c r="D46" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E46" t="n">
-        <v>874.4</v>
+        <v>912.34</v>
       </c>
       <c r="F46" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G46" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>121 / 01121838055-8</t>
+          <t>121 / 01121838328-9</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>11218382224</v>
+        <v>11218382786</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>00001326150189</t>
+          <t>00003239924188</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>MARCELO DA SILVA ALVES</t>
+          <t>EDIVAN SACCHI DE LIMA</t>
         </is>
       </c>
       <c r="D47" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E47" t="n">
-        <v>1310.61</v>
+        <v>953.47</v>
       </c>
       <c r="F47" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G47" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>121 / 01121838222-4</t>
+          <t>121 / 01121838278-6</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>11218379923</v>
+        <v>11218380343</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>00001088706363</t>
+          <t>00003026611786</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>MARCIANO HERNANDES MATEUS GONCALVES</t>
+          <t>EDSON DE MATOS</t>
         </is>
       </c>
       <c r="D48" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E48" t="n">
-        <v>1299.39</v>
+        <v>2311.65</v>
       </c>
       <c r="F48" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G48" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>121 / 01121837992-3</t>
+          <t>121 / 01121838034-3</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11218380426</v>
+        <v>11218384279</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>00000584260989</t>
+          <t>00001583707280</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>MARIA TORQUATO PAREDES FERRARI</t>
+          <t>EDSON FELIX SOARES</t>
         </is>
       </c>
       <c r="D49" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E49" t="n">
-        <v>999.7</v>
+        <v>446.04</v>
       </c>
       <c r="F49" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G49" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>121 / 01121838042-6</t>
+          <t>121 / 01121838427-9</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>11218382000</v>
+        <v>11218384212</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>00003505144380</t>
+          <t>00001455597384</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>MAURICIO DOS SANTOS</t>
+          <t>ELECIO GUIRALDELLI JUNIOR</t>
         </is>
       </c>
       <c r="D50" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E50" t="n">
-        <v>1762.41</v>
+        <v>848.77</v>
       </c>
       <c r="F50" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G50" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>121 / 01121838200-0</t>
+          <t>121 / 01121838421-2</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>11218382539</v>
+        <v>11218347532</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>00001706869380</t>
+          <t>00002265220680</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>MAURICIO JOAQUIM DOS SANTOS</t>
+          <t>ELIENE GONCALVES RIBEIRO DOS SANTOS</t>
         </is>
       </c>
       <c r="D51" s="2" t="n">
-        <v>45939</v>
+        <v>45936</v>
       </c>
       <c r="E51" t="n">
-        <v>3470.51</v>
+        <v>1388.27</v>
       </c>
       <c r="F51" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G51" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>121 / 01121838253-9</t>
+          <t>121 / 01121834753-2</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>11218377091</v>
+        <v>11218384162</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>00003361368189</t>
+          <t>00000750784555</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>MONICA XAVIER DOS SANTOS</t>
+          <t>ELIVELTON XAVIER DA SILVA</t>
         </is>
       </c>
       <c r="D52" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E52" t="n">
-        <v>1084.25</v>
+        <v>643.8099999999999</v>
       </c>
       <c r="F52" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G52" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>121 / 01121837709-1</t>
+          <t>121 / 01121838416-2</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>11218381846</v>
+        <v>11218382588</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>00002779519789</t>
+          <t>00002798524687</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ODAIR JOSE DO CARMO</t>
+          <t>ELZA BARBOSA DE ALMEIDA</t>
         </is>
       </c>
       <c r="D53" s="2" t="n">
         <v>45940</v>
       </c>
       <c r="E53" t="n">
-        <v>1161.42</v>
+        <v>957.17</v>
       </c>
       <c r="F53" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G53" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>121 / 01121838184-6</t>
+          <t>121 / 01121838258-8</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>11218382562</v>
+        <v>11218381705</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>00001859378587</t>
+          <t>00001473858283</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>OSWALDO BONFIM JUNIOR</t>
+          <t>EMERSON TETTI</t>
         </is>
       </c>
       <c r="D54" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E54" t="n">
-        <v>1843.07</v>
+        <v>1446.21</v>
       </c>
       <c r="F54" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G54" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>121 / 01121838256-2</t>
+          <t>121 / 01121838170-5</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>11218382356</v>
+        <v>11218384980</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>00002868551580</t>
+          <t>00001181642485</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>PATRICIA ELENA DE MORAES PINTO</t>
+          <t>ERICA CRISTINA CAMPOS DELLAMATRICE</t>
         </is>
       </c>
       <c r="D55" s="2" t="n">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="E55" t="n">
-        <v>1070.23</v>
+        <v>2022.58</v>
       </c>
       <c r="F55" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G55" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>121 / 01121838235-6</t>
+          <t>121 / 01121838498-0</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>11218377646</v>
+        <v>11218386316</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>00003495064680</t>
+          <t>00003615104080</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>PRISCILA SANTOS VIEIRA DA SILVA</t>
+          <t>ERICK JANSEN OLIVEIRA DOS SANTOS</t>
         </is>
       </c>
       <c r="D56" s="2" t="n">
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E56" t="n">
-        <v>1084.24</v>
+        <v>710.24</v>
       </c>
       <c r="F56" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G56" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>121 / 01121837764-6</t>
+          <t>121 / 01121838631-6</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>11218380806</v>
+        <v>11218381168</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>00003919799186</t>
+          <t>00001144787580</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>RAFAEL LUIZ DA SILVA</t>
+          <t>ERONILDA MARIA DA SILVA</t>
         </is>
       </c>
       <c r="D57" s="2" t="n">
-        <v>45939</v>
+        <v>45938</v>
       </c>
       <c r="E57" t="n">
-        <v>1452.53</v>
+        <v>1374.97</v>
       </c>
       <c r="F57" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G57" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>121 / 01121838080-6</t>
+          <t>121 / 01121838116-8</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>11218376226</v>
+        <v>11218384766</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>00002761668588</t>
+          <t>00001121045685</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>RAQUEL PIFER</t>
+          <t>EURIPEDES DE MELO</t>
         </is>
       </c>
       <c r="D58" s="2" t="n">
-        <v>45938</v>
+        <v>45939</v>
       </c>
       <c r="E58" t="n">
-        <v>1307.57</v>
+        <v>1380.19</v>
       </c>
       <c r="F58" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G58" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>121 / 01121837622-6</t>
+          <t>121 / 01121838476-6</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>11218383586</v>
+        <v>11218386761</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>00001922344486</t>
+          <t>00003227485184</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>REINALDO CASSIANO MARCONDES LORENA</t>
+          <t>EVERSON MAXIMIANO</t>
         </is>
       </c>
       <c r="D59" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E59" t="n">
-        <v>599.4400000000001</v>
+        <v>1215.79</v>
       </c>
       <c r="F59" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G59" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>121 / 01121838358-6</t>
+          <t>121 / 01121838676-1</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11218383743</v>
+        <v>11218383941</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>00003156998184</t>
+          <t>00002892292581</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>RENATA GIBIN DE CASTRO RIBEIRO</t>
+          <t>FABIO DE SOUZA CORREA</t>
         </is>
       </c>
       <c r="D60" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E60" t="n">
-        <v>414.66</v>
+        <v>701.59</v>
       </c>
       <c r="F60" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G60" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>121 / 01121838374-3</t>
+          <t>121 / 01121838394-1</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>11218380392</v>
+        <v>11218381747</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>00008098599841</t>
+          <t>00003261765283</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ROSIMEIRE CARVALHO MATIAS</t>
+          <t>FABIO MAXIMO DOS SANTOS</t>
         </is>
       </c>
       <c r="D61" s="2" t="n">
-        <v>45939</v>
+        <v>45940</v>
       </c>
       <c r="E61" t="n">
-        <v>1066.44</v>
+        <v>1664.58</v>
       </c>
       <c r="F61" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G61" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>121 / 01121838039-2</t>
+          <t>121 / 01121838174-7</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>11218352755</v>
+        <v>11218377620</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>00003009357486</t>
+          <t>00003010027788</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>ROZELI DIAS RODRIGUES</t>
+          <t>FERNANDA TEIXEIRA RODRIGUES</t>
         </is>
       </c>
       <c r="D62" s="2" t="n">
-        <v>45937</v>
+        <v>45938</v>
       </c>
       <c r="E62" t="n">
-        <v>1373.81</v>
+        <v>785.34</v>
       </c>
       <c r="F62" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G62" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>121 / 01121835275-5</t>
+          <t>121 / 01121837762-0</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>11218378412</v>
+        <v>11218382976</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>00000578733609</t>
+          <t>00004224470780</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>SAMUEL SALAZAR MARTINS</t>
+          <t>FERNANDA YONICE COTRIN ROCHA</t>
         </is>
       </c>
       <c r="D63" s="2" t="n">
-        <v>45940</v>
+        <v>45939</v>
       </c>
       <c r="E63" t="n">
-        <v>1495.19</v>
+        <v>2588.27</v>
       </c>
       <c r="F63" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G63" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>121 / 01121837841-2</t>
+          <t>121 / 01121838297-6</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11218379790</v>
+        <v>11218386811</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>00001003709389</t>
+          <t>00002250462984</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>SELMA GOMES</t>
+          <t>FERNANDO AMORIM  SILVA</t>
         </is>
       </c>
       <c r="D64" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E64" t="n">
-        <v>1106.05</v>
+        <v>1169.4</v>
       </c>
       <c r="F64" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G64" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>121 / 01121837979-0</t>
+          <t>121 / 01121838681-1</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>11218382893</v>
+        <v>11218383727</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>00003393829084</t>
+          <t>00003038095486</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>THAIS GIMENES GRECO</t>
+          <t>FERNANDO HENRIQUE MALAVASI</t>
         </is>
       </c>
       <c r="D65" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E65" t="n">
-        <v>1682.01</v>
+        <v>1483.29</v>
       </c>
       <c r="F65" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G65" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>121 / 01121838289-3</t>
+          <t>121 / 01121838372-7</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>11218380269</v>
+        <v>11218385029</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>00002585386686</t>
+          <t>00001724413880</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>VALDELEIA CORREA DE LEMOS PEREIRA</t>
+          <t>FLAVIA ROBERTA GUEDES DO AMARAL</t>
         </is>
       </c>
       <c r="D66" s="2" t="n">
         <v>45939</v>
       </c>
       <c r="E66" t="n">
-        <v>948.21</v>
+        <v>1089.87</v>
       </c>
       <c r="F66" s="3" t="n">
-        <v>45939.57636625189</v>
+        <v>45939.773042785</v>
       </c>
       <c r="G66" s="3" t="n">
-        <v>45939.54166666666</v>
+        <v>45939.75</v>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>121 / 01121838026-9</t>
+          <t>121 / 01121838502-9</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
+        <v>11218372811</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>00003100777280</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>GENILSON FRANCISCO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E67" t="n">
+        <v>960</v>
+      </c>
+      <c r="F67" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G67" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>121 / 01121837281-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>11218383297</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>00003984173784</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>GUILHERME OLIVEIRA DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E68" t="n">
+        <v>1607.52</v>
+      </c>
+      <c r="F68" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G68" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>121 / 01121838329-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>11218381044</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>00001249538882</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>GUIOMAR APARECIDA FRANZIN MENEGHINI</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="E69" t="n">
+        <v>1555.82</v>
+      </c>
+      <c r="F69" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>121 / 01121838104-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>11218382505</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>00004539489488</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>HIGOR JOSE DA SILVA</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E70" t="n">
+        <v>915.6799999999999</v>
+      </c>
+      <c r="F70" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>121 / 01121838250-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>11218384964</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>00000300394187</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>IACI BENTO BASTOS DE LIMA</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E71" t="n">
+        <v>7288.4</v>
+      </c>
+      <c r="F71" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>121 / 01121838496-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>11218386712</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>00000054666759</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>JANIO ALVES DIAS</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E72" t="n">
+        <v>1047.76</v>
+      </c>
+      <c r="F72" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>121 / 01121838671-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>11218384915</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>00003323905083</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>JAQUELINE BUENO</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E73" t="n">
+        <v>670.0599999999999</v>
+      </c>
+      <c r="F73" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G73" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>121 / 01121838491-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>11218382869</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>00002170360280</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>JEFFERSON DONIZETI DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E74" t="n">
+        <v>973.62</v>
+      </c>
+      <c r="F74" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G74" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>121 / 01121838286-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>11218383503</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>00002220728080</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>JEFFERSON ROBERTO FERREIRA</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E75" t="n">
+        <v>641.0599999999999</v>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G75" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>121 / 01121838350-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>11218386449</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>00003272613684</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>JESSICA DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E76" t="n">
+        <v>773.73</v>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G76" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>121 / 01121838644-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>11218384386</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>00000979652685</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>JESUINO NUNES QUINTAL</t>
+        </is>
+      </c>
+      <c r="D77" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E77" t="n">
+        <v>4974.12</v>
+      </c>
+      <c r="F77" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G77" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>121 / 01121838438-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>11218382968</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>00000167013688</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>JOAO ANTONIO ORTIZ DE CAMARGO</t>
+        </is>
+      </c>
+      <c r="D78" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E78" t="n">
+        <v>4584.83</v>
+      </c>
+      <c r="F78" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G78" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>121 / 01121838296-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>11218378677</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>00008338186414</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>JOAO LUIZ DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D79" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E79" t="n">
+        <v>834.48</v>
+      </c>
+      <c r="F79" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G79" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>121 / 01121837867-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>11218385086</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>00000681218452</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>JOATAN SOUZA RAMOS</t>
+        </is>
+      </c>
+      <c r="D80" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1406.54</v>
+      </c>
+      <c r="F80" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G80" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>121 / 01121838508-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>11218379675</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>00002601878282</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>JOSE LAURINDO DA SILVA</t>
+        </is>
+      </c>
+      <c r="D81" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E81" t="n">
+        <v>670.96</v>
+      </c>
+      <c r="F81" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G81" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>121 / 01121837967-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>11218366292</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>00000089323769</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>JOSE REINALDO GONCALVES TAVARES</t>
+        </is>
+      </c>
+      <c r="D82" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="E82" t="n">
+        <v>793.63</v>
+      </c>
+      <c r="F82" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G82" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>121 / 01121836629-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>11218386092</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>00001584488182</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>JOSEFA BATISTA DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1520.15</v>
+      </c>
+      <c r="F83" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G83" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>121 / 01121838609-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>11218383685</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>00000612073661</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>JOZIMAR RAIMUNDO GARCIAS</t>
+        </is>
+      </c>
+      <c r="D84" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2440.88</v>
+      </c>
+      <c r="F84" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G84" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>121 / 01121838368-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>11218384055</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>00001275926584</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>JULIO CESAR SANTOS</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1332.26</v>
+      </c>
+      <c r="F85" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G85" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>121 / 01121838405-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>11218383560</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>00002648643281</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>KATIA DA SILVA PINTO</t>
+        </is>
+      </c>
+      <c r="D86" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1159.69</v>
+      </c>
+      <c r="F86" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G86" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>121 / 01121838356-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>11218383164</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>00000285915312</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>KELLY KAROLINE C DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1658.42</v>
+      </c>
+      <c r="F87" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G87" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>121 / 01121838316-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>11218356830</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>00003444066988</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>LEILIANE RODRIGUES VIEIRA</t>
+        </is>
+      </c>
+      <c r="D88" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1277.46</v>
+      </c>
+      <c r="F88" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G88" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>121 / 01121835683-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>11218385516</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>00001312543680</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LUCIA HELENA SANTOS BASSI</t>
+        </is>
+      </c>
+      <c r="D89" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1631.95</v>
+      </c>
+      <c r="F89" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G89" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>121 / 01121838551-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>11218375897</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>00001420874080</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>LUCIACLEIDE DA COSTA E SILVA</t>
+        </is>
+      </c>
+      <c r="D90" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="E90" t="n">
+        <v>1208.41</v>
+      </c>
+      <c r="F90" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G90" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>121 / 01121837589-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>11218381218</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>00002462255788</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>LUCIANO MASSATERU MIYASHIRO</t>
+        </is>
+      </c>
+      <c r="D91" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E91" t="n">
+        <v>5000</v>
+      </c>
+      <c r="F91" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G91" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>121 / 01121838121-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>11218380558</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>00000584183380</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>LUIZ ANTONIO ALVES</t>
+        </is>
+      </c>
+      <c r="D92" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E92" t="n">
+        <v>874.4</v>
+      </c>
+      <c r="F92" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G92" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>121 / 01121838055-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>11218385342</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>00003799080686</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>LUIZ FERNANDO DE MOURA VIANA</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E93" t="n">
+        <v>1114.39</v>
+      </c>
+      <c r="F93" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G93" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>121 / 01121838534-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>11218382224</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>00001326150189</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>MARCELO DA SILVA ALVES</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E94" t="n">
+        <v>1310.61</v>
+      </c>
+      <c r="F94" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G94" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>121 / 01121838222-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>11218379923</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>00001088706363</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>MARCIANO HERNANDES MATEUS GONCALVES</t>
+        </is>
+      </c>
+      <c r="D95" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E95" t="n">
+        <v>1299.39</v>
+      </c>
+      <c r="F95" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G95" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>121 / 01121837992-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>11218359271</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>00000911888969</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>MARCOS VINICIOS VIEIRA</t>
+        </is>
+      </c>
+      <c r="D96" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E96" t="n">
+        <v>39929.11</v>
+      </c>
+      <c r="F96" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G96" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>121 / 01121835927-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>11218374999</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>00000730339580</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>MARCOS WILSON DA SILVA</t>
+        </is>
+      </c>
+      <c r="D97" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="E97" t="n">
+        <v>1101.31</v>
+      </c>
+      <c r="F97" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G97" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>121 / 01121837499-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>11218383123</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>00000260963380</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>MARIA APARECIDA ALVES DE OLIVEIRA</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E98" t="n">
+        <v>565</v>
+      </c>
+      <c r="F98" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G98" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>121 / 01121838312-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>11218380723</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>00000375049681</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>MARIA NAZARE DE MELLO FRANCO</t>
+        </is>
+      </c>
+      <c r="D99" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E99" t="n">
+        <v>506.09</v>
+      </c>
+      <c r="F99" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G99" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>121 / 01121838072-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>11218380301</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>00001762971186</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>MARIA ROSIENE DA SILVA SANTOS</t>
+        </is>
+      </c>
+      <c r="D100" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E100" t="n">
+        <v>1255.54</v>
+      </c>
+      <c r="F100" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G100" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>121 / 01121838030-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>11218380426</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>00000584260989</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>MARIA TORQUATO PAREDES FERRARI</t>
+        </is>
+      </c>
+      <c r="D101" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E101" t="n">
+        <v>999.7</v>
+      </c>
+      <c r="F101" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G101" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>121 / 01121838042-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>11218385938</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>00000521244587</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>MARIO JOSE MENDES DE MENEZES</t>
+        </is>
+      </c>
+      <c r="D102" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E102" t="n">
+        <v>1181.46</v>
+      </c>
+      <c r="F102" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G102" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>121 / 01121838593-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>11218384261</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>00000478765789</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>MARLI APARECIDA MARTINS</t>
+        </is>
+      </c>
+      <c r="D103" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E103" t="n">
+        <v>536.6900000000001</v>
+      </c>
+      <c r="F103" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G103" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>121 / 01121838426-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>11218382000</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>00003505144380</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>MAURICIO DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D104" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E104" t="n">
+        <v>1762.41</v>
+      </c>
+      <c r="F104" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G104" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>121 / 01121838200-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>11218382539</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>00001706869380</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MAURICIO JOAQUIM DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D105" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E105" t="n">
+        <v>3470.51</v>
+      </c>
+      <c r="F105" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G105" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>121 / 01121838253-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>11218385730</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>00004418048782</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>MAYARA MENEZES CAMARGO SAAB</t>
+        </is>
+      </c>
+      <c r="D106" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E106" t="n">
+        <v>9288.4</v>
+      </c>
+      <c r="F106" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G106" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>121 / 01121838573-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>11218384337</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>00004293092080</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>MAYLA SILVA FERREIRA</t>
+        </is>
+      </c>
+      <c r="D107" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E107" t="n">
+        <v>1969.75</v>
+      </c>
+      <c r="F107" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G107" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>121 / 01121838433-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>11218385375</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>00002179736185</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>MIGUEL ALESSANDRO GODOI</t>
+        </is>
+      </c>
+      <c r="D108" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E108" t="n">
+        <v>1837.86</v>
+      </c>
+      <c r="F108" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G108" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>121 / 01121838537-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>11218385714</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>00009271325486</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>MIGUEL ANGELO RAMOS</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E109" t="n">
+        <v>918.33</v>
+      </c>
+      <c r="F109" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G109" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>121 / 01121838571-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>11218377091</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>00003361368189</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MONICA XAVIER DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D110" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1084.25</v>
+      </c>
+      <c r="F110" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G110" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>121 / 01121837709-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>11218385409</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>00003460035188</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>MONIQUE ANDRESSA DOS SANTOS SOUZA</t>
+        </is>
+      </c>
+      <c r="D111" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1132.39</v>
+      </c>
+      <c r="F111" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G111" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>121 / 01121838540-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>11218381846</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>00002779519789</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ODAIR JOSE DO CARMO</t>
+        </is>
+      </c>
+      <c r="D112" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1161.42</v>
+      </c>
+      <c r="F112" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G112" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>121 / 01121838184-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>11218382562</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>00001859378587</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>OSWALDO BONFIM JUNIOR</t>
+        </is>
+      </c>
+      <c r="D113" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1843.07</v>
+      </c>
+      <c r="F113" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G113" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>121 / 01121838256-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>11218382356</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>00002868551580</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PATRICIA ELENA DE MORAES PINTO</t>
+        </is>
+      </c>
+      <c r="D114" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1070.23</v>
+      </c>
+      <c r="F114" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G114" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>121 / 01121838235-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>11218382935</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>00002217720546</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PEDRO PEREIRA CABRAL</t>
+        </is>
+      </c>
+      <c r="D115" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E115" t="n">
+        <v>875.5</v>
+      </c>
+      <c r="F115" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G115" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>121 / 01121838293-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>11218377646</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>00003495064680</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PRISCILA SANTOS VIEIRA DA SILVA</t>
+        </is>
+      </c>
+      <c r="D116" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1084.24</v>
+      </c>
+      <c r="F116" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G116" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>121 / 01121837764-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>11218385631</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>00003250692581</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>RAFAEL CRISTIANO DE CAMPOS</t>
+        </is>
+      </c>
+      <c r="D117" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E117" t="n">
+        <v>1020.97</v>
+      </c>
+      <c r="F117" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G117" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>121 / 01121838563-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>11218382513</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>00000997662549</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>RAFAEL FARIAS BARBOSA</t>
+        </is>
+      </c>
+      <c r="D118" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E118" t="n">
+        <v>694.36</v>
+      </c>
+      <c r="F118" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G118" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>121 / 01121838251-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>11218380806</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>00003919799186</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>RAFAEL LUIZ DA SILVA</t>
+        </is>
+      </c>
+      <c r="D119" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E119" t="n">
+        <v>1452.53</v>
+      </c>
+      <c r="F119" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G119" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>121 / 01121838080-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>11218382984</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>00003573440681</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>RAFAELA GONCALVES COURY</t>
+        </is>
+      </c>
+      <c r="D120" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E120" t="n">
+        <v>1750.28</v>
+      </c>
+      <c r="F120" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G120" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>121 / 01121838298-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>11218376226</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>00002761668588</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>RAQUEL PIFER</t>
+        </is>
+      </c>
+      <c r="D121" s="2" t="n">
+        <v>45938</v>
+      </c>
+      <c r="E121" t="n">
+        <v>1307.57</v>
+      </c>
+      <c r="F121" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G121" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>121 / 01121837622-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>11218383586</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>00001922344486</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>REINALDO CASSIANO MARCONDES LORENA</t>
+        </is>
+      </c>
+      <c r="D122" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E122" t="n">
+        <v>599.4400000000001</v>
+      </c>
+      <c r="F122" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G122" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>121 / 01121838358-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>11218383743</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>00003156998184</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>RENATA GIBIN DE CASTRO RIBEIRO</t>
+        </is>
+      </c>
+      <c r="D123" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E123" t="n">
+        <v>414.66</v>
+      </c>
+      <c r="F123" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G123" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>121 / 01121838374-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>11218385003</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>00003348711584</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>RENILSON DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D124" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E124" t="n">
+        <v>1229.43</v>
+      </c>
+      <c r="F124" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G124" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>121 / 01121838500-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>11218381069</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>00002932376985</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>RICARDO FLORENTINO DA CRUZ</t>
+        </is>
+      </c>
+      <c r="D125" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E125" t="n">
+        <v>898.11</v>
+      </c>
+      <c r="F125" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G125" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>121 / 01121838106-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>11218382117</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>00003314830882</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>RICARDO VENERANDO DO PRADO</t>
+        </is>
+      </c>
+      <c r="D126" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E126" t="n">
+        <v>1179.13</v>
+      </c>
+      <c r="F126" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G126" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>121 / 01121838211-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>11218381051</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>00000805711546</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>RODRIGO FELIX DA SILVA</t>
+        </is>
+      </c>
+      <c r="D127" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E127" t="n">
+        <v>1369.64</v>
+      </c>
+      <c r="F127" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G127" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>121 / 01121838105-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>11218383024</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>00001617865281</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>ROGERIO SALES DA SILVA</t>
+        </is>
+      </c>
+      <c r="D128" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E128" t="n">
+        <v>630.62</v>
+      </c>
+      <c r="F128" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G128" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>121 / 01121838302-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>11218386324</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>00000610929186</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>RONALDO LOPES DE FREITAS</t>
+        </is>
+      </c>
+      <c r="D129" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E129" t="n">
+        <v>1292.83</v>
+      </c>
+      <c r="F129" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G129" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>121 / 01121838632-4</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>11218380392</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>00008098599841</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>ROSIMEIRE CARVALHO MATIAS</t>
+        </is>
+      </c>
+      <c r="D130" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E130" t="n">
+        <v>1066.44</v>
+      </c>
+      <c r="F130" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G130" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>121 / 01121838039-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>11218352755</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>00003009357486</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ROZELI DIAS RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D131" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1373.81</v>
+      </c>
+      <c r="F131" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G131" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>121 / 01121835275-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>11218378412</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>00000578733609</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>SAMUEL SALAZAR MARTINS</t>
+        </is>
+      </c>
+      <c r="D132" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1495.19</v>
+      </c>
+      <c r="F132" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G132" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>121 / 01121837841-2</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>11218379790</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>00001003709389</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>SELMA GOMES</t>
+        </is>
+      </c>
+      <c r="D133" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1106.05</v>
+      </c>
+      <c r="F133" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G133" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>121 / 01121837979-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>11218385177</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>00003877372880</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>STELLA REGINA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D134" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1452.87</v>
+      </c>
+      <c r="F134" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G134" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>121 / 01121838517-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>11218385318</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>00003191792384</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>SUSANA ERIKA PEREIRA DE ARRUDA</t>
+        </is>
+      </c>
+      <c r="D135" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E135" t="n">
+        <v>1743.56</v>
+      </c>
+      <c r="F135" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G135" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>121 / 01121838531-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>11218381887</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>00003211087486</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>TAINA APARECIDA VIANNA COELHO</t>
+        </is>
+      </c>
+      <c r="D136" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E136" t="n">
+        <v>761.51</v>
+      </c>
+      <c r="F136" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G136" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>121 / 01121838188-7</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>11218382463</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>00001786016389</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>TELMA DE FREITAS DOS SANTOS</t>
+        </is>
+      </c>
+      <c r="D137" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1224.76</v>
+      </c>
+      <c r="F137" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G137" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>121 / 01121838246-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>11218382893</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>00003393829084</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>THAIS GIMENES GRECO</t>
+        </is>
+      </c>
+      <c r="D138" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E138" t="n">
+        <v>1682.01</v>
+      </c>
+      <c r="F138" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G138" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>121 / 01121838289-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>11218384725</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>00003548969488</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>THIAGO LUIS SILVA DE SOUZA</t>
+        </is>
+      </c>
+      <c r="D139" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E139" t="n">
+        <v>19000</v>
+      </c>
+      <c r="F139" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G139" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>121 / 01121838472-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>11218380269</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>00002585386686</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>VALDELEIA CORREA DE LEMOS PEREIRA</t>
+        </is>
+      </c>
+      <c r="D140" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E140" t="n">
+        <v>948.21</v>
+      </c>
+      <c r="F140" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G140" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>121 / 01121838026-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>11218384691</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>00004025211882</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>VALTER DE FREITAS GARCIA</t>
+        </is>
+      </c>
+      <c r="D141" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E141" t="n">
+        <v>837.45</v>
+      </c>
+      <c r="F141" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G141" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>121 / 01121838469-1</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>11218384113</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>00002666012085</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>VANDECLEI DOS SANTOS BELO</t>
+        </is>
+      </c>
+      <c r="D142" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E142" t="n">
+        <v>4105.65</v>
+      </c>
+      <c r="F142" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G142" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>121 / 01121838411-3</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>11218385995</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>00003109590280</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>VANESSA SILVEIRA MUNIZ</t>
+        </is>
+      </c>
+      <c r="D143" s="2" t="n">
+        <v>45940</v>
+      </c>
+      <c r="E143" t="n">
+        <v>1609.42</v>
+      </c>
+      <c r="F143" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G143" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>121 / 01121838599-5</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>11218380509</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>00003280422680</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>VINICIUS BATISTA FERREIRA NEVES</t>
+        </is>
+      </c>
+      <c r="D144" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E144" t="n">
+        <v>2612.53</v>
+      </c>
+      <c r="F144" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G144" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>121 / 01121838050-9</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>11218386258</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>00004137131783</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>VINICIUS IOZSA LUIZ</t>
+        </is>
+      </c>
+      <c r="D145" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E145" t="n">
+        <v>4030.76</v>
+      </c>
+      <c r="F145" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G145" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>121 / 01121838625-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
         <v>11218380350</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>00000527728381</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>WELTON MORAIS DA SILVA</t>
         </is>
       </c>
-      <c r="D67" s="2" t="n">
-        <v>45939</v>
-      </c>
-      <c r="E67" t="n">
+      <c r="D146" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E146" t="n">
         <v>844.3</v>
       </c>
-      <c r="F67" s="3" t="n">
-        <v>45939.57636625189</v>
-      </c>
-      <c r="G67" s="3" t="n">
-        <v>45939.54166666666</v>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="F146" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G146" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H146" t="inlineStr">
         <is>
           <t>121 / 01121838035-0</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>11218384816</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>00002231246589</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>WILSON BATISTA CARDOSO</t>
+        </is>
+      </c>
+      <c r="D147" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E147" t="n">
+        <v>637.11</v>
+      </c>
+      <c r="F147" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G147" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>121 / 01121838481-6</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>11218384063</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>00000999810880</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>ZENABIO DUARTE DE ARAUJO</t>
+        </is>
+      </c>
+      <c r="D148" s="2" t="n">
+        <v>45939</v>
+      </c>
+      <c r="E148" t="n">
+        <v>623.85</v>
+      </c>
+      <c r="F148" s="3" t="n">
+        <v>45939.773042785</v>
+      </c>
+      <c r="G148" s="3" t="n">
+        <v>45939.75</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>121 / 01121838406-3</t>
         </is>
       </c>
     </row>
